--- a/biology/Médecine/1813_en_santé_et_médecine/1813_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1813_en_santé_et_médecine/1813_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1813_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1813_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1813 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1813_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1813_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Angleterre
-Thomas Sutton (en), médecin anglais, introduit le terme de delirium tremens pour désigner « cette forme de delirium aggravée par la saignée mais améliorée par l'opium[1]. » Par la suite, le terme ne s'appliquera qu'à une complication de l'alcoolisme[2].
-France
-Création par 11 internes de la « Société hippocratique » qui deviendra plus tard la « Société générale des internes des hôpitaux[3]. »</t>
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thomas Sutton (en), médecin anglais, introduit le terme de delirium tremens pour désigner « cette forme de delirium aggravée par la saignée mais améliorée par l'opium. » Par la suite, le terme ne s'appliquera qu'à une complication de l'alcoolisme.</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1813_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1813_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,15 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Naissances</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15 mars : John Snow (mort en 1858), médecin anglais, un des fondateurs de l'épidémiologie. En 1854 il identifiera la source d'une épidémie de choléra. Il était aussi un pionnier de l'anesthésie[4].
-16 avril : Justin Benoît (mort en 1893), chirurgien français[5].
-12 juillet : Claude Bernard (mort en 1878), médecin et physiologiste français[6].
-1er décembre : Ann Preston (en) (morte en 1872), professeur de physiologie et de médecine, première américaine nommée doyenne d'une faculté de médecine en 1866[2],[7].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Création par 11 internes de la « Société hippocratique » qui deviendra plus tard la « Société générale des internes des hôpitaux. »</t>
         </is>
       </c>
     </row>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1813_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1813_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +592,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15 mars : John Snow (mort en 1858), médecin anglais, un des fondateurs de l'épidémiologie. En 1854 il identifiera la source d'une épidémie de choléra. Il était aussi un pionnier de l'anesthésie.
+16 avril : Justin Benoît (mort en 1893), chirurgien français.
+12 juillet : Claude Bernard (mort en 1878), médecin et physiologiste français.
+1er décembre : Ann Preston (en) (morte en 1872), professeur de physiologie et de médecine, première américaine nommée doyenne d'une faculté de médecine en 1866,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1813_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1813_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3 avril : Charles-Louis Dumas (né en 1765), médecin français[8].
-17 décembre : Antoine Parmentier (né en 1737), pharmacien, agronome, nutritionniste et hygiéniste français[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 avril : Charles-Louis Dumas (né en 1765), médecin français.
+17 décembre : Antoine Parmentier (né en 1737), pharmacien, agronome, nutritionniste et hygiéniste français.</t>
         </is>
       </c>
     </row>
